--- a/biology/Histoire de la zoologie et de la botanique/Anton_Rochel/Anton_Rochel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Anton_Rochel/Anton_Rochel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anton Rochel (né le 18 juin 1770, à Neunkirchen et décédé le 12 mai 1847, à Graz) est un chirurgien et naturaliste autrichien, connu pour ses recherches botaniques sur le Banat et les Carpates.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jusqu'en 1798, il est chirurgien dans l'armée autrichienne, puis de 1798 à 1820, il travaille comme médecin en Moravie et en Hongrie. De 1820 à 1840, il est conservateur au jardin botanique de Pest[1]. Le genre botanique Rochelia (famille des Boraginacées) est nommé en son honneur par le botaniste allemand Ludwig Reichenbach (1793-1879)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jusqu'en 1798, il est chirurgien dans l'armée autrichienne, puis de 1798 à 1820, il travaille comme médecin en Moravie et en Hongrie. De 1820 à 1840, il est conservateur au jardin botanique de Pest. Le genre botanique Rochelia (famille des Boraginacées) est nommé en son honneur par le botaniste allemand Ludwig Reichenbach (1793-1879).
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Œuvres publiées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Naturhistorische miscellen uber den nordwestlichen Karpath à ober-Ungarn, 1821 - Notes d'histoire naturelle sur les Carpates du nord-ouest de la haute Hongrie.
 Plantae Banatus rariores: iconibus et descriptionibus illustratae, 1828.
-Botanische Reise à das Banat im Jahre 1835 nebst Gelegenheits-Bemerkungen, 1838 - Voyage botanique à Banat en 1835[3].</t>
+Botanische Reise à das Banat im Jahre 1835 nebst Gelegenheits-Bemerkungen, 1838 - Voyage botanique à Banat en 1835.</t>
         </is>
       </c>
     </row>
